--- a/fitting_results/fitting_results(10_15_joint_band_from_mat)/channel_weights(basic_fm_differ_rcm).xlsx
+++ b/fitting_results/fitting_results(10_15_joint_band_from_mat)/channel_weights(basic_fm_differ_rcm).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\fitting_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\fitting_results\fitting_results(10_15_joint_band_from_mat)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB2B8BB-170D-4309-B571-7E9CF2D02692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9316A74A-2D0D-44B4-BAC1-EBBA8035D499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7361,7 +7361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
